--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>977433.2644466597</v>
+        <v>978217.4103846881</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,64 +667,64 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F2" t="n">
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G2" t="n">
-        <v>31.1509994400877</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>19.84004947482878</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>5.211223902333169</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -938,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -975,25 +977,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>39.04589723677577</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>18.37270108173896</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="H8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,19 +1214,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>19.84004947482878</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>175.1726471750431</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,58 +1387,58 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,31 +1448,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>153.6816173514498</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1552,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1622,58 +1624,58 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S14" t="n">
+      <c r="W14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T14" t="n">
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="15">
@@ -1686,16 +1688,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>14.48693373137008</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1746,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>105.3690580549763</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
         <v>205.5178444382804</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1789,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1926,25 +1928,25 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>60.09118670082915</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2096,58 +2098,58 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>134.6855069843875</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>118.0298825695387</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>114.9581870864144</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,13 +2399,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>118.5628686044508</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>157.8643926765646</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2552,14 +2554,14 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
@@ -2576,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2646,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>6.805790939918549</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>169.9804588624397</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>82.96396779500076</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,31 +2870,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D30" t="n">
-        <v>4.320372589888956</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2950,67 +2952,67 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>40.47627913313517</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="33">
@@ -3111,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3120,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>115.1545305496692</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3165,7 +3167,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3174,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="34">
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3275,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,25 +3310,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3345,25 +3347,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>9.609021946079844</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.16726461546774</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,25 +3508,25 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3563,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3642,10 +3644,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>176.2637201985544</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,22 +3787,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3873,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,61 +3976,61 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9.211010870930398</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
+      <c r="T44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>205.5178444382804</v>
@@ -4056,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>90.01905571024375</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,13 +4115,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>463.0946480769296</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>463.0946480769296</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>463.0946480769296</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>255.5008658160403</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
         <v>16.44142755506243</v>
@@ -4331,10 +4333,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4352,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>463.0946480769296</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X2" t="n">
-        <v>463.0946480769296</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y2" t="n">
-        <v>463.0946480769296</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.481881570041</v>
+        <v>339.8288664974407</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D3" t="n">
         <v>16.44142755506243</v>
@@ -4410,49 +4412,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>715.637985778398</v>
       </c>
       <c r="T3" t="n">
-        <v>619.8847831118876</v>
+        <v>715.637985778398</v>
       </c>
       <c r="U3" t="n">
-        <v>412.2910008509983</v>
+        <v>508.0442035175087</v>
       </c>
       <c r="V3" t="n">
-        <v>204.697218590109</v>
+        <v>508.0442035175087</v>
       </c>
       <c r="W3" t="n">
-        <v>204.697218590109</v>
+        <v>508.0442035175087</v>
       </c>
       <c r="X3" t="n">
-        <v>204.697218590109</v>
+        <v>508.0442035175087</v>
       </c>
       <c r="Y3" t="n">
-        <v>204.697218590109</v>
+        <v>508.0442035175087</v>
       </c>
     </row>
     <row r="4">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.4092504478133</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C5" t="n">
-        <v>37.81546818692397</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D5" t="n">
-        <v>37.81546818692397</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E5" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
         <v>16.44142755506243</v>
@@ -4568,10 +4570,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4586,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y5" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>379.2691667366082</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="C6" t="n">
-        <v>204.8161374554811</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="D6" t="n">
-        <v>55.88172779422987</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="E6" t="n">
-        <v>55.88172779422987</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I6" t="n">
         <v>16.44142755506243</v>
@@ -4650,10 +4652,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N6" t="n">
         <v>618.608711759224</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>547.4845037566762</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V6" t="n">
-        <v>547.4845037566762</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W6" t="n">
-        <v>547.4845037566762</v>
+        <v>388.3255293103946</v>
       </c>
       <c r="X6" t="n">
-        <v>547.4845037566762</v>
+        <v>388.3255293103946</v>
       </c>
       <c r="Y6" t="n">
-        <v>547.4845037566762</v>
+        <v>388.3255293103946</v>
       </c>
     </row>
     <row r="7">
@@ -4720,10 +4722,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D8" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E8" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F8" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G8" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4844,10 +4846,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>476.9139728794746</v>
+        <v>36.481881570041</v>
       </c>
       <c r="C9" t="n">
-        <v>302.4609435983476</v>
+        <v>36.481881570041</v>
       </c>
       <c r="D9" t="n">
-        <v>302.4609435983476</v>
+        <v>36.481881570041</v>
       </c>
       <c r="E9" t="n">
-        <v>302.4609435983476</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>155.9263856252326</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4911,22 +4913,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y9" t="n">
-        <v>645.1293098995427</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5045,16 +5047,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5066,22 +5068,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y11" t="n">
         <v>406.8838132313431</v>
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5133,37 +5135,37 @@
         <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>392.2505468360198</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y12" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5221,28 +5223,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>245.4092504478133</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4092504478133</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X14" t="n">
-        <v>245.4092504478133</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y14" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>339.8288664974407</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C15" t="n">
-        <v>165.3758372163137</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="F15" t="n">
         <v>16.44142755506243</v>
@@ -5361,10 +5363,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M15" t="n">
         <v>345.2616536067974</v>
-      </c>
-      <c r="M15" t="n">
-        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
         <v>548.724319600695</v>
@@ -5394,13 +5396,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X15" t="n">
-        <v>715.637985778398</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y15" t="n">
-        <v>508.0442035175087</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,46 +5600,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="19">
@@ -5729,19 +5731,19 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y20" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="U20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="V20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>298.4948343740486</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C21" t="n">
-        <v>298.4948343740486</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D21" t="n">
-        <v>298.4948343740486</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E21" t="n">
-        <v>139.2573793685931</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H21" t="n">
         <v>20.03527576299844</v>
@@ -5832,13 +5834,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>298.4948343740486</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X21" t="n">
-        <v>298.4948343740486</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y21" t="n">
-        <v>298.4948343740486</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231.8830517671884</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>231.8830517671884</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D23" t="n">
-        <v>231.8830517671884</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E23" t="n">
-        <v>231.8830517671884</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>231.8830517671884</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>313.4946457291688</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C24" t="n">
-        <v>139.0416164480418</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6069,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6093,25 +6095,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="V24" t="n">
-        <v>689.4702815141908</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="W24" t="n">
-        <v>689.4702815141908</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="X24" t="n">
-        <v>689.4702815141908</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="Y24" t="n">
-        <v>481.7099827492369</v>
+        <v>495.6683447969875</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>339.3395341116723</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>164.8865048305452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>164.8865048305452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>164.8865048305452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>164.8865048305452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>26.15567941316075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>26.15567941316075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6311,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W27" t="n">
-        <v>547.1910343172051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X27" t="n">
-        <v>339.3395341116723</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y27" t="n">
-        <v>339.3395341116723</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>344.6327430815143</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C30" t="n">
-        <v>170.1797138003873</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6579,13 +6581,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y30" t="n">
-        <v>512.8480801015824</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
         <v>19.28114311021272</v>
@@ -6658,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>284.5332603973924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>284.5332603973924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>135.5988507361412</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>135.5988507361412</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>135.5988507361412</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6786,13 +6788,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6813,16 +6815,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>735.8335372470253</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>492.3847606029253</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>284.5332603973924</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>284.5332603973924</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6847,10 +6849,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I34" t="n">
         <v>829.5248650203655</v>
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>40.6788758079141</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C35" t="n">
-        <v>40.6788758079141</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D35" t="n">
-        <v>40.6788758079141</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E35" t="n">
-        <v>40.6788758079141</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F35" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G35" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>527.5764290961142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U35" t="n">
-        <v>284.1276524520142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V35" t="n">
-        <v>284.1276524520142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W35" t="n">
-        <v>40.6788758079141</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X35" t="n">
-        <v>40.6788758079141</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y35" t="n">
-        <v>40.6788758079141</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>35.61171342886701</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C36" t="n">
-        <v>35.61171342886701</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D36" t="n">
-        <v>35.61171342886701</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E36" t="n">
-        <v>35.61171342886701</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F36" t="n">
-        <v>35.61171342886701</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
-        <v>35.61171342886701</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>35.61171342886701</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7020,16 +7022,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>619.4388494194218</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X36" t="n">
-        <v>411.587349213889</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.827050448935</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
         <v>19.28114311021272</v>
@@ -7138,7 +7140,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>953.9655401424092</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C38" t="n">
-        <v>953.9655401424092</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D38" t="n">
-        <v>710.516763498309</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E38" t="n">
-        <v>710.516763498309</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F38" t="n">
-        <v>467.067986854209</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G38" t="n">
-        <v>223.6192102101089</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y38" t="n">
-        <v>953.9655401424092</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="39">
@@ -7254,13 +7256,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7275,22 +7277,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>432.4774131586771</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>197.3253049269343</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X39" t="n">
         <v>19.28114311021272</v>
@@ -7309,22 +7311,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I40" t="n">
         <v>829.5248650203655</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7415,13 +7417,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7433,28 +7435,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T41" t="n">
-        <v>651.2927635848137</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U41" t="n">
-        <v>443.6989813239244</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V41" t="n">
-        <v>236.1051990630351</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W41" t="n">
-        <v>28.51141680214578</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X41" t="n">
-        <v>28.51141680214578</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y41" t="n">
-        <v>28.51141680214578</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
         <v>16.44142755506243</v>
@@ -7494,19 +7496,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>163.1080096386462</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M42" t="n">
-        <v>163.1080096386462</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7521,19 +7523,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7600,10 +7602,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7658,7 +7660,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
         <v>732.4113224610707</v>
@@ -7667,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="W44" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="X44" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="Y44" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>441.0602509429012</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>266.6072216617742</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
         <v>16.44142755506243</v>
@@ -7731,19 +7733,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>441.0602509429012</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7831,16 +7833,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7979,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>201.9320071929585</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8298,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>201.9320071929585</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8532,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>258.4602915813506</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8693,10 +8695,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M11" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8705,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8781,13 +8783,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>164.1205091169155</v>
@@ -9246,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,22 +9959,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,19 +10670,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11072,7 +11074,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,10 +11144,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>286.7024424905649</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
@@ -11154,10 +11156,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,10 +11308,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N45" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,13 +22555,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>384.1517380750474</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22592,10 +22594,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,13 +22606,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22626,10 +22628,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>152.868449513487</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22671,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>166.4719472015047</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22781,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910243</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22799,7 +22801,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>318.3145018902242</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22826,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22863,25 +22865,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>106.0233151566081</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22908,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>233.3222820791806</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>115.6226874585631</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23021,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>246.2319094885102</v>
       </c>
       <c r="H8" t="n">
         <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23100,19 +23102,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>137.8050309805722</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23121,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23151,13 +23153,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23166,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.51004860226124</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23273,10 +23275,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23306,7 +23308,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>46.48311134337177</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23440,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23510,13 +23512,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>330.2637912448367</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,31 +23539,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748161</v>
       </c>
     </row>
     <row r="15">
@@ -23574,16 +23576,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>130.5822786620138</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -23634,10 +23636,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>100.4039271485011</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>0.1648513390239543</v>
@@ -23665,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23677,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23814,25 +23816,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>87.3538788638096</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24014,16 +24016,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,22 +24050,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>38.02299200392821</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>27.03932982384518</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,10 +24223,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24251,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>108.137662477717</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,13 +24287,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>28.88219696018795</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24333,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>13.81877842727323</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>164.936795482178</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24464,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>82.59084191149653</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24570,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>35.7022369148647</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24698,7 +24700,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>286.7671328834683</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,31 +24758,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D30" t="n">
-        <v>143.1246929747498</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24819,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,19 +24928,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>168.5437904531102</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24999,7 +25001,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25008,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>22.18898661354147</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25053,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25062,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="34">
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25163,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>322.4562579625502</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>318.2910467450428</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,25 +25198,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25233,25 +25235,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>163.0994770422359</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>73.22936823594733</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25293,13 +25295,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25394,25 +25396,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25451,10 +25453,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>266.7222029466672</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25530,10 +25532,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>75.43126296236522</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25567,7 +25569,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>361.5735414379376</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>64.01572075205127</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25725,7 +25727,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>42.10035367008034</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25761,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25840,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25883,10 +25885,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>201.2648786994755</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
         <v>45.82780846955609</v>
@@ -25944,13 +25946,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>57.42600985439501</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25992,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,13 +26003,13 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26071,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402333.000846122</v>
+        <v>402333.0008461222</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402333.0008461222</v>
+        <v>402333.000846122</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>402333.0008461222</v>
+        <v>402333.000846122</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>402333.0008461222</v>
+        <v>402333.0008461223</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402333.0008461222</v>
+        <v>402333.000846122</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>423769.2598999695</v>
+        <v>423769.2598999696</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>423769.2598999697</v>
+        <v>423769.2598999696</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>423769.2598999696</v>
+        <v>423769.2598999697</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>423769.2598999695</v>
+        <v>423769.2598999696</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402333.0008461222</v>
+        <v>402333.000846122</v>
       </c>
     </row>
   </sheetData>
@@ -26323,7 +26325,7 @@
         <v>157757.6418349316</v>
       </c>
       <c r="F2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="G2" t="n">
         <v>166160.6725313324</v>
@@ -26332,7 +26334,7 @@
         <v>166160.6725313324</v>
       </c>
       <c r="I2" t="n">
-        <v>166160.6725313324</v>
+        <v>166160.6725313323</v>
       </c>
       <c r="J2" t="n">
         <v>166160.6725313324</v>
@@ -26353,7 +26355,7 @@
         <v>157757.6418349316</v>
       </c>
       <c r="P2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
     </row>
     <row r="3">
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>8092.707817725994</v>
+      </c>
+      <c r="C4" t="n">
         <v>8092.707817725995</v>
       </c>
-      <c r="C4" t="n">
-        <v>8092.707817725993</v>
-      </c>
       <c r="D4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="E4" t="n">
         <v>8092.707817725994</v>
       </c>
       <c r="F4" t="n">
-        <v>8092.707817725993</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
         <v>8547.111069342402</v>
@@ -26448,16 +26450,16 @@
         <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
         <v>8092.707817725995</v>
       </c>
       <c r="P4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34668.09249366834</v>
+        <v>34668.09249366831</v>
       </c>
       <c r="C6" t="n">
         <v>103541.8490753582</v>
@@ -26531,7 +26533,7 @@
         <v>137169.4490753582</v>
       </c>
       <c r="F6" t="n">
-        <v>137169.4490753582</v>
+        <v>137169.4490753581</v>
       </c>
       <c r="G6" t="n">
         <v>133230.8497240612</v>
@@ -26540,10 +26542,10 @@
         <v>142959.8926982283</v>
       </c>
       <c r="I6" t="n">
-        <v>142959.8926982283</v>
+        <v>142959.8926982282</v>
       </c>
       <c r="J6" t="n">
-        <v>89187.38180801891</v>
+        <v>89187.38180801885</v>
       </c>
       <c r="K6" t="n">
         <v>142959.8926982283</v>
@@ -26558,10 +26560,10 @@
         <v>142959.8926982283</v>
       </c>
       <c r="O6" t="n">
+        <v>137169.4490753582</v>
+      </c>
+      <c r="P6" t="n">
         <v>137169.4490753581</v>
-      </c>
-      <c r="P6" t="n">
-        <v>137169.4490753582</v>
       </c>
     </row>
   </sheetData>
@@ -34699,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35018,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35413,10 +35415,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M11" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35425,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N14" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
         <v>21.52426467247106</v>
@@ -35966,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36920,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37783,7 +37785,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37792,7 +37794,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37862,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>148.1480627106907</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
@@ -37874,10 +37876,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,10 +38028,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
+        <v>197.2140931478448</v>
+      </c>
+      <c r="N45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N45" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>978217.4103846881</v>
+        <v>873984.9121212449</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4775595.445364186</v>
+        <v>4775595.445364185</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>5.211223902333169</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,73 +898,73 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E5" t="n">
+      <c r="X5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="Y5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>18.37270108173896</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>14.3780636550197</v>
       </c>
     </row>
     <row r="7">
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,64 +1144,64 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G8" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>19.84004947482878</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>9.336946277399546</v>
       </c>
       <c r="V9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,11 +1369,11 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
-        <v>181.0201173812374</v>
-      </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>205.5178444382804</v>
@@ -1451,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.5178444382804</v>
@@ -1779,55 +1779,55 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>60.09118670082915</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1976,16 +1976,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,28 +2162,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>134.6855069843875</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,68 +2317,68 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>33.93991708044859</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>157.8643926765646</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2478,73 +2478,73 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2599,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>49.47510734301483</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>169.9804588624397</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2715,61 +2715,61 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X29" t="n">
-        <v>82.96396779500076</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,28 +2873,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="31">
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3207,37 +3207,37 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>9.609021946079844</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>69.25490737416295</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -3407,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3429,67 +3429,67 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,19 +3514,19 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X38" t="n">
-        <v>103.0088977318019</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>90.50278177497624</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3681,37 +3681,37 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>205.5178444382804</v>
@@ -3784,22 +3784,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X42" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3997,10 +3997,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>9.211010870930398</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -4036,7 +4036,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>80.86228322859426</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4336,46 +4336,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="W2" t="n">
-        <v>406.8838132313431</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="X2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.8288664974407</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
         <v>16.44142755506243</v>
@@ -4415,46 +4415,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M3" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>548.724319600695</v>
       </c>
-      <c r="N3" t="n">
-        <v>618.608711759224</v>
-      </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>715.637985778398</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>715.637985778398</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>508.0442035175087</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V3" t="n">
-        <v>508.0442035175087</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W3" t="n">
-        <v>508.0442035175087</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X3" t="n">
-        <v>508.0442035175087</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>508.0442035175087</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4521,19 +4521,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
         <v>16.44142755506243</v>
@@ -4573,13 +4573,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4600,19 +4600,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>220.1101922903266</v>
+        <v>325.3674248745549</v>
       </c>
       <c r="C6" t="n">
-        <v>220.1101922903266</v>
+        <v>325.3674248745549</v>
       </c>
       <c r="D6" t="n">
-        <v>220.1101922903266</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="E6" t="n">
-        <v>220.1101922903266</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F6" t="n">
-        <v>220.1101922903266</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>220.1101922903266</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>106.7410566979059</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4652,46 +4652,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>211.6833797714288</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>415.1460457653264</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>618.608711759224</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U6" t="n">
-        <v>614.4775954922324</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="V6" t="n">
-        <v>406.8838132313431</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="W6" t="n">
-        <v>388.3255293103946</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="X6" t="n">
-        <v>388.3255293103946</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="Y6" t="n">
-        <v>388.3255293103946</v>
+        <v>325.3674248745549</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
         <v>16.44142755506243</v>
@@ -4749,28 +4749,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C8" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D8" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E8" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F8" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G8" t="n">
-        <v>443.6989813239244</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H8" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4810,46 +4810,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y8" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36.481881570041</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>36.481881570041</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>36.481881570041</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
         <v>16.44142755506243</v>
@@ -4889,16 +4889,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
+        <v>16.44142755506243</v>
+      </c>
+      <c r="M9" t="n">
         <v>219.90409354896</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>423.3667595428576</v>
       </c>
-      <c r="N9" t="n">
-        <v>549.2141532458947</v>
-      </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4910,25 +4910,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>619.8847831118876</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U9" t="n">
-        <v>619.8847831118876</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V9" t="n">
-        <v>412.2910008509983</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W9" t="n">
-        <v>412.2910008509983</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X9" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y9" t="n">
-        <v>204.697218590109</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4995,19 +4995,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5047,46 +5047,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>814.3015730003187</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5132,10 +5132,10 @@
         <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O12" t="n">
-        <v>752.1869855945927</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P12" t="n">
         <v>822.0713777531216</v>
@@ -5147,25 +5147,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5217,13 +5217,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
         <v>16.44142755506243</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
         <v>16.44142755506243</v>
@@ -5281,49 +5281,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V14" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W14" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X14" t="n">
-        <v>199.2900309704538</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31.07469395038575</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C15" t="n">
-        <v>31.07469395038575</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="D15" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
         <v>16.44142755506243</v>
@@ -5372,10 +5372,10 @@
         <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5390,13 +5390,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W15" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X15" t="n">
         <v>406.8838132313431</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
         <v>16.44142755506243</v>
@@ -5475,13 +5475,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>728.9050472788936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>728.9050472788936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L18" t="n">
-        <v>178.8501590306595</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>728.9050472788936</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>728.9050472788936</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X18" t="n">
-        <v>728.9050472788936</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y18" t="n">
-        <v>728.9050472788936</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="19">
@@ -5703,13 +5703,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5782,22 +5782,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>726.8416594126254</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>577.9072497513741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X21" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5934,19 +5934,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467.067986854209</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C23" t="n">
-        <v>467.067986854209</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D23" t="n">
-        <v>223.6192102101089</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E23" t="n">
-        <v>223.6192102101089</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F23" t="n">
-        <v>223.6192102101089</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G23" t="n">
-        <v>223.6192102101089</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y23" t="n">
-        <v>710.516763498309</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>327.4530077769195</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C24" t="n">
-        <v>327.4530077769195</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6071,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>703.4286435619415</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>703.4286435619415</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>703.4286435619415</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>703.4286435619415</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>703.4286435619415</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>703.4286435619415</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y24" t="n">
-        <v>495.6683447969875</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6311,46 +6311,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>487.8483949674443</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>914.082299608601</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>740.6649550592699</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>740.6649550592699</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>740.6649550592699</v>
       </c>
       <c r="V27" t="n">
-        <v>533.6469426057913</v>
+        <v>740.6649550592699</v>
       </c>
       <c r="W27" t="n">
-        <v>533.6469426057913</v>
+        <v>740.6649550592699</v>
       </c>
       <c r="X27" t="n">
-        <v>533.6469426057913</v>
+        <v>532.8134548537371</v>
       </c>
       <c r="Y27" t="n">
-        <v>361.9495094114078</v>
+        <v>325.0531560887832</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6417,19 +6417,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6575,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6657,7 +6657,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C33" t="n">
         <v>19.28114311021272</v>
@@ -6782,16 +6782,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
         <v>964.0571555106362</v>
@@ -6824,7 +6824,7 @@
         <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>591.4512093066566</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U35" t="n">
-        <v>591.4512093066566</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V35" t="n">
-        <v>591.4512093066566</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W35" t="n">
-        <v>591.4512093066566</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X35" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>622.424473941237</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="C36" t="n">
-        <v>612.718391167419</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="D36" t="n">
-        <v>463.7839815061678</v>
+        <v>89.23559500330663</v>
       </c>
       <c r="E36" t="n">
-        <v>304.5465265007123</v>
+        <v>89.23559500330663</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7019,13 +7019,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
         <v>725.4530095217538</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V36" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W36" t="n">
-        <v>790.6398109613051</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X36" t="n">
-        <v>790.6398109613051</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.6398109613051</v>
+        <v>238.1700046645579</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
         <v>19.28114311021272</v>
@@ -7137,10 +7137,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>243.9530410142718</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7265,10 +7265,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>327.2640844659515</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>83.81530782185143</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7390,13 +7390,13 @@
         <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
         <v>224.0352098159517</v>
@@ -7414,49 +7414,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U41" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W41" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X41" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y41" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="C42" t="n">
         <v>16.44142755506243</v>
@@ -7493,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U42" t="n">
-        <v>614.4775954922324</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V42" t="n">
-        <v>406.8838132313431</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W42" t="n">
-        <v>199.2900309704538</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X42" t="n">
-        <v>16.44142755506243</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
     </row>
     <row r="43">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
         <v>732.4113224610707</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>453.0030327087026</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T44" t="n">
-        <v>245.4092504478133</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U44" t="n">
-        <v>37.81546818692397</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="V44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="45">
@@ -7736,13 +7736,13 @@
         <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>415.1460457653264</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7751,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V45" t="n">
-        <v>406.8838132313431</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W45" t="n">
-        <v>199.2900309704538</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X45" t="n">
-        <v>16.44142755506243</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
     </row>
     <row r="46">
@@ -7830,7 +7830,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S46" t="n">
         <v>16.44142755506243</v>
@@ -7984,7 +7984,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7996,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>201.9320071929585</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8230,7 +8230,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>209.1446748894994</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>435.8640776655532</v>
@@ -8467,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,19 +8537,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>258.4602915813506</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8704,10 +8704,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8780,13 +8780,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P12" t="n">
-        <v>204.5647025239554</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9020,13 +9020,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>164.1205091169155</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L18" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,13 +9491,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,22 +9959,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,10 +10439,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10913,13 +10913,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11074,10 +11074,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>335.768472927719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11153,13 +11153,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11311,7 +11311,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11384,16 +11384,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>339.3481270698632</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>155.3219763666824</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>348.5708004529261</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22673,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>166.4719472015047</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22685,13 +22685,13 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,13 +22786,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>200.9102526910243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22840,19 +22840,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748161</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22880,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22922,16 +22922,16 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>233.3222820791806</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>191.3046321222847</v>
       </c>
     </row>
     <row r="7">
@@ -22962,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>246.2319094885102</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>318.3145018902242</v>
       </c>
       <c r="I8" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23108,7 +23108,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>137.8050309805722</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23150,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>216.6044358035753</v>
       </c>
       <c r="V9" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>184.2527743897701</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23314,13 +23314,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>230.1853526822936</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>164.2132562401886</v>
@@ -23339,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>211.2513200601165</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23457,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23503,13 +23503,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>360.7700698467189</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23554,16 +23554,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.2178212748161</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>139.1334471717171</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>130.5822786620138</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -23630,16 +23630,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0.1648513390239543</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>218.5474650704376</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23810,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>131.1259181763289</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>87.3538788638096</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23864,16 +23864,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24022,22 +24022,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,28 +24050,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>38.02299200392821</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1801156868699</v>
+        <v>318.2910467450428</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>103.403600082762</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>13.81877842727323</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24521,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>50.6827268096283</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24587,10 +24587,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.7022369148647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24700,7 +24700,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24736,16 +24736,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X29" t="n">
-        <v>286.7671328834683</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,28 +24761,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24815,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="31">
@@ -24897,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>168.5437904531102</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25095,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>322.4562579625502</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>358.5380445222895</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>163.0994770422359</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>75.81430501922092</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25295,10 +25295,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>266.7222029466672</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>76.0304018748911</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25481,7 +25481,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25520,7 +25520,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25535,7 +25535,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>141.8841621389552</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25569,7 +25569,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>361.5735414379376</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
         <v>209.7848930768546</v>
@@ -25672,22 +25672,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>158.0184369674574</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>24.75286782224003</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25885,10 +25885,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>201.2648786994755</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>296.6012590300472</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>85.67090042127307</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>24.75286782224003</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26070,10 +26070,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402333.0008461222</v>
+        <v>402333.000846122</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402333.000846122</v>
+        <v>402333.0008461223</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>402333.000846122</v>
+        <v>402333.0008461222</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>402333.0008461223</v>
+        <v>402333.0008461222</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402333.000846122</v>
+        <v>402333.0008461221</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>423769.2598999697</v>
+        <v>423769.2598999695</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>423769.2598999697</v>
+        <v>423769.2598999695</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>423769.2598999697</v>
+        <v>423769.2598999696</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402333.000846122</v>
+        <v>402333.0008461222</v>
       </c>
     </row>
   </sheetData>
@@ -26334,7 +26334,7 @@
         <v>166160.6725313324</v>
       </c>
       <c r="I2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="J2" t="n">
         <v>166160.6725313324</v>
@@ -26346,10 +26346,10 @@
         <v>166160.6725313324</v>
       </c>
       <c r="M2" t="n">
-        <v>166160.6725313324</v>
+        <v>166160.6725313325</v>
       </c>
       <c r="N2" t="n">
-        <v>166160.6725313324</v>
+        <v>166160.6725313325</v>
       </c>
       <c r="O2" t="n">
         <v>157757.6418349316</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>8092.707817725995</v>
+      </c>
+      <c r="C4" t="n">
         <v>8092.707817725994</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8092.707817725995</v>
       </c>
       <c r="D4" t="n">
         <v>8092.707817725995</v>
@@ -26435,7 +26435,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="I4" t="n">
         <v>8547.111069342402</v>
@@ -26456,7 +26456,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="P4" t="n">
         <v>8092.707817725995</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34668.09249366831</v>
+        <v>22029.9303388078</v>
       </c>
       <c r="C6" t="n">
-        <v>103541.8490753582</v>
+        <v>90903.68692049762</v>
       </c>
       <c r="D6" t="n">
-        <v>103541.8490753582</v>
+        <v>90903.68692049765</v>
       </c>
       <c r="E6" t="n">
-        <v>137169.4490753582</v>
+        <v>124531.2869204977</v>
       </c>
       <c r="F6" t="n">
-        <v>137169.4490753581</v>
+        <v>124531.2869204977</v>
       </c>
       <c r="G6" t="n">
-        <v>133230.8497240612</v>
+        <v>121012.8391040208</v>
       </c>
       <c r="H6" t="n">
-        <v>142959.8926982283</v>
+        <v>130741.8820781878</v>
       </c>
       <c r="I6" t="n">
-        <v>142959.8926982282</v>
+        <v>130741.8820781879</v>
       </c>
       <c r="J6" t="n">
-        <v>89187.38180801885</v>
+        <v>76969.37118797844</v>
       </c>
       <c r="K6" t="n">
-        <v>142959.8926982283</v>
+        <v>130741.8820781879</v>
       </c>
       <c r="L6" t="n">
-        <v>142959.8926982283</v>
+        <v>130741.8820781879</v>
       </c>
       <c r="M6" t="n">
-        <v>142959.8926982283</v>
+        <v>130741.8820781879</v>
       </c>
       <c r="N6" t="n">
-        <v>142959.8926982283</v>
+        <v>130741.8820781879</v>
       </c>
       <c r="O6" t="n">
-        <v>137169.4490753582</v>
+        <v>124531.2869204977</v>
       </c>
       <c r="P6" t="n">
-        <v>137169.4490753581</v>
+        <v>124531.2869204976</v>
       </c>
     </row>
   </sheetData>
@@ -34704,7 +34704,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34716,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34950,7 +34950,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
         <v>205.5178444382804</v>
@@ -35187,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>127.1185794980173</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35415,7 +35415,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35424,10 +35424,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P12" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L18" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36211,13 +36211,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37159,10 +37159,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37557,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37633,13 +37633,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37794,10 +37794,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37873,13 +37873,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38031,7 +38031,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38104,16 +38104,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
